--- a/PX/策划/结构.xlsx
+++ b/PX/策划/结构.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22488" windowHeight="9347"/>
+    <workbookView windowWidth="22488" windowHeight="9347" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>角色属性表</t>
   </si>
@@ -40,6 +40,39 @@
   </si>
   <si>
     <t>音效表</t>
+  </si>
+  <si>
+    <t>世界界面</t>
+  </si>
+  <si>
+    <t>主要作用</t>
+  </si>
+  <si>
+    <t>1 获得养成资源：魅力值；妹子；图鉴</t>
+  </si>
+  <si>
+    <t>2 营造繁荣的情景，提供给玩家社交平台</t>
+  </si>
+  <si>
+    <t>3 作为世界性行为的场所</t>
+  </si>
+  <si>
+    <t>庄园界面</t>
+  </si>
+  <si>
+    <t>1 进行养成的行为：升级；派出放置行为（庄园中不进行放置行为）</t>
+  </si>
+  <si>
+    <t>2 提供玩家与妹子进行交互的平台</t>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
+    <t>玩家在庄园的房子里，让妹子所有的行为是全局性的，不再分房间与世界</t>
+  </si>
+  <si>
+    <t>玩家不需要在世界里单独让妹子进行放置</t>
   </si>
 </sst>
 </file>
@@ -47,10 +80,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -62,6 +95,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -69,7 +109,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -77,67 +117,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -158,13 +138,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -173,6 +146,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -180,9 +168,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -204,11 +216,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -221,187 +254,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -416,16 +449,64 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -445,70 +526,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -517,153 +550,156 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1016,7 +1052,7 @@
   <sheetPr/>
   <dimension ref="C3:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
@@ -1072,14 +1108,78 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="D7:D20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
+  <cols>
+    <col min="4" max="4" width="9.66666666666667" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="7" spans="4:4">
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="4:4">
+      <c r="D8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="4:4">
+      <c r="D9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="4:4">
+      <c r="D10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="4:4">
+      <c r="D11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="4:4">
+      <c r="D13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="4:4">
+      <c r="D14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="4:4">
+      <c r="D15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="4:4">
+      <c r="D16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="4:4">
+      <c r="D18" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="4:4">
+      <c r="D19" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="4:4">
+      <c r="D20" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
